--- a/Gannt Actualizado 13.03.xlsx
+++ b/Gannt Actualizado 13.03.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvaes-my.sharepoint.com/personal/david_manso_estudiantes_uva_es/Documents/Master/2Cuatri/TallerDeProyectos2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="165" documentId="8_{E86F3355-65FF-AF47-822B-D2872C91CF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B1C8331-354B-5641-B333-112A6300349B}"/>
+  <xr:revisionPtr revIDLastSave="175" documentId="8_{E86F3355-65FF-AF47-822B-D2872C91CF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81F756E6-D110-A542-AF63-3C67B2A706C9}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart Template" sheetId="1" r:id="rId1"/>
@@ -37,6 +37,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={CA93A18A-62DB-C44F-81D3-3694755CB407}</author>
+    <author>tc={85D1C4FB-D7AF-DF43-AC6A-B1F5A6A6A624}</author>
   </authors>
   <commentList>
     <comment ref="J12" authorId="0" shapeId="0" xr:uid="{CA93A18A-62DB-C44F-81D3-3694755CB407}">
@@ -46,6 +47,14 @@
 Comentario:
     Problemas con la BladeRF: Estaba en modo distinto y no conseguimos instalar el software en la SDR.
 </t>
+      </text>
+    </comment>
+    <comment ref="J14" authorId="1" shapeId="0" xr:uid="{85D1C4FB-D7AF-DF43-AC6A-B1F5A6A6A624}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    Problemas con la BladeRF: Estaba en modo distinto y no conseguimos instalar el software en la SDR.</t>
       </text>
     </comment>
   </commentList>
@@ -881,7 +890,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -900,20 +909,8 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -924,27 +921,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -955,42 +931,15 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1014,9 +963,6 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1051,32 +997,101 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1084,13 +1099,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1157,6 +1165,7 @@
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Microsoft Office User" id="{718AA23B-48CA-904B-90F1-C2F569278380}" userId="Microsoft Office User" providerId="None"/>
+  <person displayName=" MANSO FERNANDEZ" id="{B4FA5506-0441-694A-AB83-ED7BC5BE4D8C}" userId="S::david.manso@estudiantes.uva.es::9376a137-35d5-4919-893c-ad49f10cec66" providerId="AD"/>
 </personList>
 </file>
 
@@ -1427,6 +1436,9 @@
     <text xml:space="preserve">Problemas con la BladeRF: Estaba en modo distinto y no conseguimos instalar el software en la SDR.
 </text>
   </threadedComment>
+  <threadedComment ref="J14" dT="2023-03-21T10:41:10.50" personId="{B4FA5506-0441-694A-AB83-ED7BC5BE4D8C}" id="{85D1C4FB-D7AF-DF43-AC6A-B1F5A6A6A624}">
+    <text>Problemas con la BladeRF: Estaba en modo distinto y no conseguimos instalar el software en la SDR.</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -1437,8 +1449,8 @@
   </sheetPr>
   <dimension ref="B1:X49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="114" zoomScaleNormal="81" zoomScalePageLayoutView="114" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScale="114" zoomScaleNormal="81" zoomScalePageLayoutView="114" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1456,223 +1468,223 @@
     <row r="1" spans="2:24" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1"/>
       <c r="C1" s="7"/>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="44">
+      <c r="H1" s="24">
         <v>2</v>
       </c>
-      <c r="I1" s="44">
+      <c r="I1" s="24">
         <v>3</v>
       </c>
-      <c r="J1" s="44">
+      <c r="J1" s="24">
         <v>4</v>
       </c>
-      <c r="K1" s="44">
+      <c r="K1" s="24">
         <v>5</v>
       </c>
-      <c r="L1" s="44">
+      <c r="L1" s="24">
         <v>6</v>
       </c>
-      <c r="M1" s="44">
+      <c r="M1" s="24">
         <v>7</v>
       </c>
-      <c r="N1" s="44">
+      <c r="N1" s="24">
         <v>8</v>
       </c>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44">
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24">
         <v>9</v>
       </c>
-      <c r="R1" s="44">
+      <c r="R1" s="24">
         <v>10</v>
       </c>
-      <c r="S1" s="44">
+      <c r="S1" s="24">
         <v>11</v>
       </c>
-      <c r="T1" s="44">
+      <c r="T1" s="24">
         <v>12</v>
       </c>
-      <c r="U1" s="44">
+      <c r="U1" s="24">
         <v>13</v>
       </c>
-      <c r="V1" s="44">
+      <c r="V1" s="24">
         <v>14</v>
       </c>
-      <c r="W1" s="44">
+      <c r="W1" s="24">
         <v>15</v>
       </c>
-      <c r="X1" s="52">
+      <c r="X1" s="31">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="2:24" ht="64" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42" t="s">
+      <c r="C2" s="60"/>
+      <c r="D2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="45">
+      <c r="H2" s="25">
         <v>44970</v>
       </c>
-      <c r="I2" s="46">
+      <c r="I2" s="26">
         <v>44977</v>
       </c>
-      <c r="J2" s="46">
+      <c r="J2" s="26">
         <v>44984</v>
       </c>
-      <c r="K2" s="46">
+      <c r="K2" s="26">
         <v>44991</v>
       </c>
-      <c r="L2" s="46">
+      <c r="L2" s="26">
         <v>44998</v>
       </c>
-      <c r="M2" s="46">
+      <c r="M2" s="26">
         <v>45005</v>
       </c>
-      <c r="N2" s="46">
+      <c r="N2" s="26">
         <v>45012</v>
       </c>
-      <c r="O2" s="47">
+      <c r="O2" s="27">
         <v>45019</v>
       </c>
-      <c r="P2" s="48">
+      <c r="P2" s="28">
         <v>45026</v>
       </c>
-      <c r="Q2" s="49">
+      <c r="Q2" s="29">
         <v>45033</v>
       </c>
-      <c r="R2" s="46">
+      <c r="R2" s="26">
         <v>45040</v>
       </c>
-      <c r="S2" s="46">
+      <c r="S2" s="26">
         <v>45047</v>
       </c>
-      <c r="T2" s="46">
+      <c r="T2" s="26">
         <v>45054</v>
       </c>
-      <c r="U2" s="46">
+      <c r="U2" s="26">
         <v>45061</v>
       </c>
-      <c r="V2" s="46">
+      <c r="V2" s="26">
         <v>45068</v>
       </c>
-      <c r="W2" s="46">
+      <c r="W2" s="26">
         <v>45075</v>
       </c>
-      <c r="X2" s="50">
+      <c r="X2" s="30">
         <v>45082</v>
       </c>
     </row>
     <row r="3" spans="2:24" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="72"/>
-      <c r="W3" s="73"/>
-      <c r="X3" s="74"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="51"/>
     </row>
     <row r="4" spans="2:24" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="70"/>
-      <c r="S4" s="70"/>
-      <c r="T4" s="70"/>
-      <c r="U4" s="70"/>
-      <c r="V4" s="70"/>
-      <c r="W4" s="70"/>
-      <c r="X4" s="70"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
     </row>
     <row r="5" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="63">
+      <c r="D5" s="42">
         <v>44970</v>
       </c>
-      <c r="E5" s="64">
+      <c r="E5" s="43">
         <v>44997</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="65" t="s">
+      <c r="G5" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="53"/>
-      <c r="X5" s="54"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="33"/>
     </row>
     <row r="6" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B6" s="13"/>
-      <c r="C6" s="14" t="s">
+      <c r="B6" s="64"/>
+      <c r="C6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="55">
+      <c r="D6" s="34">
         <v>44970</v>
       </c>
       <c r="E6" s="2">
@@ -1700,14 +1712,14 @@
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
-      <c r="X6" s="56"/>
+      <c r="X6" s="35"/>
     </row>
     <row r="7" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B7" s="15"/>
-      <c r="C7" s="16" t="s">
+      <c r="B7" s="65"/>
+      <c r="C7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="55">
+      <c r="D7" s="34">
         <v>44970</v>
       </c>
       <c r="E7" s="2">
@@ -1735,16 +1747,16 @@
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
-      <c r="X7" s="56"/>
+      <c r="X7" s="35"/>
     </row>
     <row r="8" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="55">
+      <c r="D8" s="34">
         <v>44984</v>
       </c>
       <c r="E8" s="2">
@@ -1772,16 +1784,16 @@
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
-      <c r="X8" s="56"/>
+      <c r="X8" s="35"/>
     </row>
     <row r="9" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="55">
+      <c r="D9" s="34">
         <v>44984</v>
       </c>
       <c r="E9" s="2">
@@ -1809,16 +1821,16 @@
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
-      <c r="X9" s="56"/>
+      <c r="X9" s="35"/>
     </row>
     <row r="10" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="55">
+      <c r="D10" s="34">
         <v>44984</v>
       </c>
       <c r="E10" s="2">
@@ -1846,14 +1858,14 @@
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
-      <c r="X10" s="56"/>
+      <c r="X10" s="35"/>
     </row>
     <row r="11" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B11" s="20"/>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="67"/>
+      <c r="C11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="55">
+      <c r="D11" s="34">
         <v>44991</v>
       </c>
       <c r="E11" s="2">
@@ -1881,14 +1893,14 @@
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
-      <c r="X11" s="56"/>
+      <c r="X11" s="35"/>
     </row>
     <row r="12" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B12" s="20"/>
-      <c r="C12" s="16" t="s">
+      <c r="B12" s="67"/>
+      <c r="C12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="55">
+      <c r="D12" s="34">
         <v>44984</v>
       </c>
       <c r="E12" s="2">
@@ -1902,7 +1914,7 @@
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="84"/>
+      <c r="J12" s="56"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -1916,14 +1928,14 @@
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
-      <c r="X12" s="56"/>
+      <c r="X12" s="35"/>
     </row>
     <row r="13" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B13" s="21"/>
-      <c r="C13" s="16" t="s">
+      <c r="B13" s="68"/>
+      <c r="C13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="55">
+      <c r="D13" s="34">
         <v>44991</v>
       </c>
       <c r="E13" s="2">
@@ -1951,16 +1963,16 @@
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
-      <c r="X13" s="56"/>
+      <c r="X13" s="35"/>
     </row>
     <row r="14" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="55">
+      <c r="D14" s="34">
         <v>44984</v>
       </c>
       <c r="E14" s="2">
@@ -1974,7 +1986,7 @@
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="84"/>
+      <c r="J14" s="56"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
@@ -1988,16 +2000,16 @@
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
-      <c r="X14" s="56"/>
+      <c r="X14" s="35"/>
     </row>
     <row r="15" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="55">
+      <c r="D15" s="34">
         <v>44998</v>
       </c>
       <c r="E15" s="2">
@@ -2025,14 +2037,14 @@
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
-      <c r="X15" s="56"/>
+      <c r="X15" s="35"/>
     </row>
     <row r="16" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B16" s="24"/>
-      <c r="C16" s="16" t="s">
+      <c r="B16" s="70"/>
+      <c r="C16" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="55">
+      <c r="D16" s="34">
         <v>44998</v>
       </c>
       <c r="E16" s="2">
@@ -2060,14 +2072,14 @@
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
-      <c r="X16" s="56"/>
+      <c r="X16" s="35"/>
     </row>
     <row r="17" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="55">
+      <c r="C17" s="62"/>
+      <c r="D17" s="34">
         <v>45005</v>
       </c>
       <c r="E17" s="2">
@@ -2095,115 +2107,115 @@
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
-      <c r="X17" s="56"/>
+      <c r="X17" s="35"/>
     </row>
     <row r="18" spans="2:24" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="57">
+      <c r="D18" s="36">
         <v>45026</v>
       </c>
-      <c r="E18" s="59">
+      <c r="E18" s="38">
         <v>45040</v>
       </c>
-      <c r="F18" s="66" t="s">
+      <c r="F18" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="66" t="s">
+      <c r="G18" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="60"/>
-      <c r="O18" s="60"/>
-      <c r="P18" s="60"/>
-      <c r="Q18" s="60"/>
-      <c r="R18" s="60"/>
-      <c r="S18" s="60"/>
-      <c r="T18" s="60"/>
-      <c r="U18" s="60"/>
-      <c r="V18" s="60"/>
-      <c r="W18" s="60"/>
-      <c r="X18" s="61"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="39"/>
+      <c r="W18" s="39"/>
+      <c r="X18" s="40"/>
     </row>
     <row r="19" spans="2:24" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="70"/>
-      <c r="O19" s="70"/>
-      <c r="P19" s="70"/>
-      <c r="Q19" s="70"/>
-      <c r="R19" s="70"/>
-      <c r="S19" s="70"/>
-      <c r="T19" s="70"/>
-      <c r="U19" s="70"/>
-      <c r="V19" s="70"/>
-      <c r="W19" s="70"/>
-      <c r="X19" s="70"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
     </row>
     <row r="20" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="62" t="s">
+      <c r="C20" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="63">
+      <c r="D20" s="42">
         <v>44970</v>
       </c>
-      <c r="E20" s="64">
+      <c r="E20" s="43">
         <v>44970</v>
       </c>
-      <c r="F20" s="65" t="s">
+      <c r="F20" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="G20" s="65" t="s">
+      <c r="G20" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="53"/>
-      <c r="Q20" s="53"/>
-      <c r="R20" s="53"/>
-      <c r="S20" s="53"/>
-      <c r="T20" s="53"/>
-      <c r="U20" s="53"/>
-      <c r="V20" s="53"/>
-      <c r="W20" s="53"/>
-      <c r="X20" s="54"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="33"/>
     </row>
     <row r="21" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B21" s="21"/>
-      <c r="C21" s="16" t="s">
+      <c r="B21" s="68"/>
+      <c r="C21" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="55">
+      <c r="D21" s="34">
         <v>44970</v>
       </c>
       <c r="E21" s="2">
@@ -2231,16 +2243,16 @@
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
-      <c r="X21" s="56"/>
+      <c r="X21" s="35"/>
     </row>
     <row r="22" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="55">
+      <c r="D22" s="34">
         <v>44977</v>
       </c>
       <c r="E22" s="2">
@@ -2268,14 +2280,14 @@
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
-      <c r="X22" s="56"/>
+      <c r="X22" s="35"/>
     </row>
     <row r="23" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B23" s="20"/>
-      <c r="C23" s="16" t="s">
+      <c r="B23" s="67"/>
+      <c r="C23" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="55">
+      <c r="D23" s="34">
         <v>44977</v>
       </c>
       <c r="E23" s="2">
@@ -2303,14 +2315,14 @@
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
-      <c r="X23" s="56"/>
+      <c r="X23" s="35"/>
     </row>
     <row r="24" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B24" s="21"/>
-      <c r="C24" s="16" t="s">
+      <c r="B24" s="68"/>
+      <c r="C24" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="55">
+      <c r="D24" s="34">
         <v>44977</v>
       </c>
       <c r="E24" s="2">
@@ -2338,16 +2350,16 @@
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
-      <c r="X24" s="56"/>
+      <c r="X24" s="35"/>
     </row>
     <row r="25" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="55">
+      <c r="D25" s="34">
         <v>44984</v>
       </c>
       <c r="E25" s="2">
@@ -2375,14 +2387,14 @@
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
-      <c r="X25" s="56"/>
+      <c r="X25" s="35"/>
     </row>
     <row r="26" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B26" s="20"/>
-      <c r="C26" s="16" t="s">
+      <c r="B26" s="67"/>
+      <c r="C26" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="55">
+      <c r="D26" s="34">
         <v>44984</v>
       </c>
       <c r="E26" s="2">
@@ -2410,14 +2422,14 @@
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
-      <c r="X26" s="56"/>
+      <c r="X26" s="35"/>
     </row>
     <row r="27" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B27" s="21"/>
-      <c r="C27" s="16" t="s">
+      <c r="B27" s="68"/>
+      <c r="C27" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="55">
+      <c r="D27" s="34">
         <v>44991</v>
       </c>
       <c r="E27" s="2">
@@ -2427,7 +2439,7 @@
         <v>71</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
@@ -2445,26 +2457,26 @@
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
-      <c r="X27" s="56"/>
+      <c r="X27" s="35"/>
     </row>
     <row r="28" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="55">
-        <v>45012</v>
+      <c r="D28" s="34">
+        <v>44998</v>
       </c>
       <c r="E28" s="2">
-        <v>45033</v>
+        <v>45019</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>71</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
@@ -2482,26 +2494,26 @@
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
-      <c r="X28" s="56"/>
+      <c r="X28" s="35"/>
     </row>
     <row r="29" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="55">
-        <v>45033</v>
+      <c r="D29" s="34">
+        <v>44998</v>
       </c>
       <c r="E29" s="2">
-        <v>45040</v>
+        <v>45019</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>71</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
@@ -2519,115 +2531,115 @@
       <c r="U29" s="4"/>
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
-      <c r="X29" s="56"/>
+      <c r="X29" s="35"/>
     </row>
     <row r="30" spans="2:24" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="57">
-        <v>45033</v>
-      </c>
-      <c r="E30" s="59">
+      <c r="D30" s="36">
+        <v>45019</v>
+      </c>
+      <c r="E30" s="38">
         <v>45040</v>
       </c>
-      <c r="F30" s="66" t="s">
+      <c r="F30" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="G30" s="66" t="s">
+      <c r="G30" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="60"/>
-      <c r="N30" s="60"/>
-      <c r="O30" s="60"/>
-      <c r="P30" s="60"/>
-      <c r="Q30" s="60"/>
-      <c r="R30" s="60"/>
-      <c r="S30" s="60"/>
-      <c r="T30" s="60"/>
-      <c r="U30" s="60"/>
-      <c r="V30" s="60"/>
-      <c r="W30" s="60"/>
-      <c r="X30" s="61"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="39"/>
+      <c r="S30" s="39"/>
+      <c r="T30" s="39"/>
+      <c r="U30" s="39"/>
+      <c r="V30" s="39"/>
+      <c r="W30" s="39"/>
+      <c r="X30" s="40"/>
     </row>
     <row r="31" spans="2:24" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="67" t="s">
+      <c r="B31" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="78"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="70"/>
-      <c r="K31" s="70"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="70"/>
-      <c r="N31" s="70"/>
-      <c r="O31" s="70"/>
-      <c r="P31" s="70"/>
-      <c r="Q31" s="70"/>
-      <c r="R31" s="70"/>
-      <c r="S31" s="70"/>
-      <c r="T31" s="70"/>
-      <c r="U31" s="70"/>
-      <c r="V31" s="70"/>
-      <c r="W31" s="70"/>
-      <c r="X31" s="70"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
     </row>
     <row r="32" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="62" t="s">
+      <c r="C32" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="63">
+      <c r="D32" s="42">
         <v>45040</v>
       </c>
-      <c r="E32" s="64">
+      <c r="E32" s="43">
         <v>45060</v>
       </c>
-      <c r="F32" s="65" t="s">
+      <c r="F32" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G32" s="65" t="s">
+      <c r="G32" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="53"/>
-      <c r="Q32" s="53"/>
-      <c r="R32" s="53"/>
-      <c r="S32" s="53"/>
-      <c r="T32" s="53"/>
-      <c r="U32" s="53"/>
-      <c r="V32" s="53"/>
-      <c r="W32" s="53"/>
-      <c r="X32" s="54"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="32"/>
+      <c r="R32" s="32"/>
+      <c r="S32" s="32"/>
+      <c r="T32" s="32"/>
+      <c r="U32" s="32"/>
+      <c r="V32" s="32"/>
+      <c r="W32" s="32"/>
+      <c r="X32" s="33"/>
     </row>
     <row r="33" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B33" s="20"/>
-      <c r="C33" s="16" t="s">
+      <c r="B33" s="67"/>
+      <c r="C33" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="55">
+      <c r="D33" s="34">
         <v>45040</v>
       </c>
       <c r="E33" s="2">
@@ -2655,14 +2667,14 @@
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
-      <c r="X33" s="56"/>
+      <c r="X33" s="35"/>
     </row>
     <row r="34" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B34" s="21"/>
-      <c r="C34" s="16" t="s">
+      <c r="B34" s="68"/>
+      <c r="C34" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="55">
+      <c r="D34" s="34">
         <v>45040</v>
       </c>
       <c r="E34" s="2">
@@ -2690,16 +2702,16 @@
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
-      <c r="X34" s="56"/>
+      <c r="X34" s="35"/>
     </row>
     <row r="35" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="55">
+      <c r="D35" s="34">
         <v>45040</v>
       </c>
       <c r="E35" s="2">
@@ -2727,14 +2739,14 @@
       <c r="U35" s="4"/>
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
-      <c r="X35" s="56"/>
+      <c r="X35" s="35"/>
     </row>
     <row r="36" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B36" s="20"/>
-      <c r="C36" s="14" t="s">
+      <c r="B36" s="67"/>
+      <c r="C36" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="55">
+      <c r="D36" s="34">
         <v>45040</v>
       </c>
       <c r="E36" s="2">
@@ -2762,14 +2774,14 @@
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
-      <c r="X36" s="56"/>
+      <c r="X36" s="35"/>
     </row>
     <row r="37" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B37" s="20"/>
-      <c r="C37" s="16" t="s">
+      <c r="B37" s="67"/>
+      <c r="C37" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="55">
+      <c r="D37" s="34">
         <v>45040</v>
       </c>
       <c r="E37" s="2">
@@ -2797,14 +2809,14 @@
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
-      <c r="X37" s="56"/>
+      <c r="X37" s="35"/>
     </row>
     <row r="38" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B38" s="21"/>
-      <c r="C38" s="16" t="s">
+      <c r="B38" s="68"/>
+      <c r="C38" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="55">
+      <c r="D38" s="34">
         <v>45040</v>
       </c>
       <c r="E38" s="2">
@@ -2832,16 +2844,16 @@
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
-      <c r="X38" s="56"/>
+      <c r="X38" s="35"/>
     </row>
     <row r="39" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="55">
+      <c r="D39" s="34">
         <v>45040</v>
       </c>
       <c r="E39" s="2">
@@ -2869,14 +2881,14 @@
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
-      <c r="X39" s="56"/>
+      <c r="X39" s="35"/>
     </row>
     <row r="40" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B40" s="20"/>
-      <c r="C40" s="16" t="s">
+      <c r="B40" s="67"/>
+      <c r="C40" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D40" s="55">
+      <c r="D40" s="34">
         <v>45040</v>
       </c>
       <c r="E40" s="2">
@@ -2904,113 +2916,113 @@
       <c r="U40" s="4"/>
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
-      <c r="X40" s="56"/>
+      <c r="X40" s="35"/>
     </row>
     <row r="41" spans="2:24" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="32"/>
-      <c r="C41" s="28" t="s">
+      <c r="B41" s="71"/>
+      <c r="C41" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="57">
+      <c r="D41" s="36">
         <v>45040</v>
       </c>
-      <c r="E41" s="59">
+      <c r="E41" s="38">
         <v>45060</v>
       </c>
-      <c r="F41" s="66" t="s">
+      <c r="F41" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="G41" s="66" t="s">
+      <c r="G41" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="H41" s="60"/>
-      <c r="I41" s="60"/>
-      <c r="J41" s="60"/>
-      <c r="K41" s="60"/>
-      <c r="L41" s="60"/>
-      <c r="M41" s="60"/>
-      <c r="N41" s="60"/>
-      <c r="O41" s="60"/>
-      <c r="P41" s="60"/>
-      <c r="Q41" s="60"/>
-      <c r="R41" s="60"/>
-      <c r="S41" s="60"/>
-      <c r="T41" s="60"/>
-      <c r="U41" s="60"/>
-      <c r="V41" s="60"/>
-      <c r="W41" s="60"/>
-      <c r="X41" s="61"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="39"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="39"/>
+      <c r="R41" s="39"/>
+      <c r="S41" s="39"/>
+      <c r="T41" s="39"/>
+      <c r="U41" s="39"/>
+      <c r="V41" s="39"/>
+      <c r="W41" s="39"/>
+      <c r="X41" s="40"/>
     </row>
     <row r="42" spans="2:24" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="67" t="s">
+      <c r="B42" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="78"/>
-      <c r="D42" s="68"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="69"/>
-      <c r="G42" s="69"/>
-      <c r="H42" s="70"/>
-      <c r="I42" s="70"/>
-      <c r="J42" s="70"/>
-      <c r="K42" s="70"/>
-      <c r="L42" s="70"/>
-      <c r="M42" s="70"/>
-      <c r="N42" s="70"/>
-      <c r="O42" s="70"/>
-      <c r="P42" s="70"/>
-      <c r="Q42" s="70"/>
-      <c r="R42" s="70"/>
-      <c r="S42" s="70"/>
-      <c r="T42" s="70"/>
-      <c r="U42" s="70"/>
-      <c r="V42" s="70"/>
-      <c r="W42" s="70"/>
-      <c r="X42" s="70"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
     </row>
     <row r="43" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="79" t="s">
+      <c r="C43" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="D43" s="63">
+      <c r="D43" s="42">
         <v>44970</v>
       </c>
-      <c r="E43" s="64">
+      <c r="E43" s="43">
         <v>45083</v>
       </c>
-      <c r="F43" s="64" t="s">
+      <c r="F43" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="G43" s="64" t="s">
+      <c r="G43" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="53"/>
-      <c r="M43" s="53"/>
-      <c r="N43" s="53"/>
-      <c r="O43" s="53"/>
-      <c r="P43" s="53"/>
-      <c r="Q43" s="53"/>
-      <c r="R43" s="53"/>
-      <c r="S43" s="53"/>
-      <c r="T43" s="53"/>
-      <c r="U43" s="53"/>
-      <c r="V43" s="53"/>
-      <c r="W43" s="53"/>
-      <c r="X43" s="54"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="32"/>
+      <c r="N43" s="32"/>
+      <c r="O43" s="32"/>
+      <c r="P43" s="32"/>
+      <c r="Q43" s="32"/>
+      <c r="R43" s="32"/>
+      <c r="S43" s="32"/>
+      <c r="T43" s="32"/>
+      <c r="U43" s="32"/>
+      <c r="V43" s="32"/>
+      <c r="W43" s="32"/>
+      <c r="X43" s="33"/>
     </row>
     <row r="44" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B44" s="21"/>
-      <c r="C44" s="33" t="s">
+      <c r="B44" s="68"/>
+      <c r="C44" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D44" s="55">
+      <c r="D44" s="34">
         <v>44970</v>
       </c>
       <c r="E44" s="2">
@@ -3038,14 +3050,14 @@
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
-      <c r="X44" s="56"/>
+      <c r="X44" s="35"/>
     </row>
     <row r="45" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="C45" s="35"/>
-      <c r="D45" s="55">
+      <c r="C45" s="75"/>
+      <c r="D45" s="34">
         <v>44970</v>
       </c>
       <c r="E45" s="9" t="s">
@@ -3073,150 +3085,144 @@
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
-      <c r="X45" s="56"/>
+      <c r="X45" s="35"/>
     </row>
     <row r="46" spans="2:24" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="36" t="s">
+      <c r="B46" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="37"/>
-      <c r="D46" s="57">
+      <c r="C46" s="81"/>
+      <c r="D46" s="36">
         <v>44970</v>
       </c>
-      <c r="E46" s="58" t="s">
+      <c r="E46" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="F46" s="59" t="s">
+      <c r="F46" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="G46" s="59" t="s">
+      <c r="G46" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H46" s="60"/>
-      <c r="I46" s="60"/>
-      <c r="J46" s="60"/>
-      <c r="K46" s="60"/>
-      <c r="L46" s="60"/>
-      <c r="M46" s="60"/>
-      <c r="N46" s="60"/>
-      <c r="O46" s="60"/>
-      <c r="P46" s="60"/>
-      <c r="Q46" s="60"/>
-      <c r="R46" s="60"/>
-      <c r="S46" s="60"/>
-      <c r="T46" s="60"/>
-      <c r="U46" s="60"/>
-      <c r="V46" s="60"/>
-      <c r="W46" s="60"/>
-      <c r="X46" s="61"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="39"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="39"/>
+      <c r="O46" s="39"/>
+      <c r="P46" s="39"/>
+      <c r="Q46" s="39"/>
+      <c r="R46" s="39"/>
+      <c r="S46" s="39"/>
+      <c r="T46" s="39"/>
+      <c r="U46" s="39"/>
+      <c r="V46" s="39"/>
+      <c r="W46" s="39"/>
+      <c r="X46" s="40"/>
     </row>
     <row r="47" spans="2:24" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="80" t="s">
+      <c r="B47" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="81"/>
-      <c r="D47" s="68"/>
-      <c r="E47" s="68"/>
-      <c r="F47" s="69"/>
-      <c r="G47" s="69"/>
-      <c r="H47" s="70"/>
-      <c r="I47" s="70"/>
-      <c r="J47" s="70"/>
-      <c r="K47" s="70"/>
-      <c r="L47" s="70"/>
-      <c r="M47" s="70"/>
-      <c r="N47" s="70"/>
-      <c r="O47" s="70"/>
-      <c r="P47" s="70"/>
-      <c r="Q47" s="70"/>
-      <c r="R47" s="70"/>
-      <c r="S47" s="70"/>
-      <c r="T47" s="70"/>
-      <c r="U47" s="70"/>
-      <c r="V47" s="70"/>
-      <c r="W47" s="70"/>
-      <c r="X47" s="70"/>
+      <c r="C47" s="83"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
     </row>
     <row r="48" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="62" t="s">
+      <c r="C48" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="D48" s="63">
+      <c r="D48" s="42">
         <v>44970</v>
       </c>
-      <c r="E48" s="82" t="s">
+      <c r="E48" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="F48" s="64" t="s">
+      <c r="F48" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="G48" s="83" t="s">
+      <c r="G48" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="H48" s="53"/>
-      <c r="I48" s="53"/>
-      <c r="J48" s="53"/>
-      <c r="K48" s="53"/>
-      <c r="L48" s="53"/>
-      <c r="M48" s="53"/>
-      <c r="N48" s="53"/>
-      <c r="O48" s="53"/>
-      <c r="P48" s="53"/>
-      <c r="Q48" s="53"/>
-      <c r="R48" s="53"/>
-      <c r="S48" s="53"/>
-      <c r="T48" s="53"/>
-      <c r="U48" s="53"/>
-      <c r="V48" s="53"/>
-      <c r="W48" s="53"/>
-      <c r="X48" s="54"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="32"/>
+      <c r="M48" s="32"/>
+      <c r="N48" s="32"/>
+      <c r="O48" s="32"/>
+      <c r="P48" s="32"/>
+      <c r="Q48" s="32"/>
+      <c r="R48" s="32"/>
+      <c r="S48" s="32"/>
+      <c r="T48" s="32"/>
+      <c r="U48" s="32"/>
+      <c r="V48" s="32"/>
+      <c r="W48" s="32"/>
+      <c r="X48" s="33"/>
     </row>
     <row r="49" spans="2:24" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="32"/>
-      <c r="C49" s="28" t="s">
+      <c r="B49" s="71"/>
+      <c r="C49" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D49" s="57">
+      <c r="D49" s="36">
         <v>44970</v>
       </c>
-      <c r="E49" s="58" t="s">
+      <c r="E49" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="F49" s="59" t="s">
+      <c r="F49" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="G49" s="59" t="s">
+      <c r="G49" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H49" s="60"/>
-      <c r="I49" s="60"/>
-      <c r="J49" s="60"/>
-      <c r="K49" s="60"/>
-      <c r="L49" s="60"/>
-      <c r="M49" s="60"/>
-      <c r="N49" s="60"/>
-      <c r="O49" s="60"/>
-      <c r="P49" s="60"/>
-      <c r="Q49" s="60"/>
-      <c r="R49" s="60"/>
-      <c r="S49" s="60"/>
-      <c r="T49" s="60"/>
-      <c r="U49" s="60"/>
-      <c r="V49" s="60"/>
-      <c r="W49" s="60"/>
-      <c r="X49" s="61"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="39"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="39"/>
+      <c r="O49" s="39"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="39"/>
+      <c r="R49" s="39"/>
+      <c r="S49" s="39"/>
+      <c r="T49" s="39"/>
+      <c r="U49" s="39"/>
+      <c r="V49" s="39"/>
+      <c r="W49" s="39"/>
+      <c r="X49" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B15:B16"/>
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B45:C45"/>
@@ -3232,6 +3238,12 @@
     <mergeCell ref="B35:B38"/>
     <mergeCell ref="B39:B41"/>
     <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B15:B16"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="H4:X49">
@@ -3259,7 +3271,7 @@
       <formula>AND($D44&lt;=H$2,$E46&gt;=H$2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="E44:E45 D44:D49 D4:E43 G47 F42:G46 F49:G49 F47:F48" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>OR(NOT(ISERROR(DATEVALUE(D4))), AND(ISNUMBER(D4), LEFT(CELL("format", D4))="D"))</formula1>
     </dataValidation>
@@ -3273,7 +3285,7 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>'Assignees and Status'!$A$2:$A$35</xm:f>
